--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1241926666666667</v>
+        <v>0.03034166666666667</v>
       </c>
       <c r="H2">
-        <v>0.372578</v>
+        <v>0.09102499999999999</v>
       </c>
       <c r="I2">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="J2">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="N2">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="O2">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="P2">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="Q2">
-        <v>0.01422954037355556</v>
+        <v>0.002206213380555556</v>
       </c>
       <c r="R2">
-        <v>0.128065863362</v>
+        <v>0.019855920425</v>
       </c>
       <c r="S2">
-        <v>4.969605776948317E-05</v>
+        <v>7.768100619450781E-06</v>
       </c>
       <c r="T2">
-        <v>4.969605776948317E-05</v>
+        <v>7.768100619450781E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1241926666666667</v>
+        <v>0.03034166666666667</v>
       </c>
       <c r="H3">
-        <v>0.372578</v>
+        <v>0.09102499999999999</v>
       </c>
       <c r="I3">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="J3">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>28.171991</v>
       </c>
       <c r="O3">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="P3">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="Q3">
-        <v>1.166251562533111</v>
+        <v>0.2849283867527778</v>
       </c>
       <c r="R3">
-        <v>10.496264062798</v>
+        <v>2.564355480775</v>
       </c>
       <c r="S3">
-        <v>0.00407308342391058</v>
+        <v>0.00100323585974989</v>
       </c>
       <c r="T3">
-        <v>0.00407308342391058</v>
+        <v>0.00100323585974989</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1241926666666667</v>
+        <v>0.03034166666666667</v>
       </c>
       <c r="H4">
-        <v>0.372578</v>
+        <v>0.09102499999999999</v>
       </c>
       <c r="I4">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="J4">
-        <v>0.00757902233016378</v>
+        <v>0.001862306623420098</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>23.905536</v>
       </c>
       <c r="O4">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="P4">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="Q4">
-        <v>0.9896307546453332</v>
+        <v>0.2417779349333334</v>
       </c>
       <c r="R4">
-        <v>8.906676791807998</v>
+        <v>2.1760014144</v>
       </c>
       <c r="S4">
-        <v>0.003456242848483717</v>
+        <v>0.0008513026630507568</v>
       </c>
       <c r="T4">
-        <v>0.003456242848483717</v>
+        <v>0.0008513026630507567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.699091</v>
       </c>
       <c r="I5">
-        <v>0.5227737133000635</v>
+        <v>0.5257850852532363</v>
       </c>
       <c r="J5">
-        <v>0.5227737133000636</v>
+        <v>0.5257850852532362</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="N5">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="O5">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="P5">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="Q5">
-        <v>0.9815025389265557</v>
+        <v>0.6228802903852223</v>
       </c>
       <c r="R5">
-        <v>8.833522850339001</v>
+        <v>5.605922613467001</v>
       </c>
       <c r="S5">
-        <v>0.003427855404664809</v>
+        <v>0.002193168082575359</v>
       </c>
       <c r="T5">
-        <v>0.00342785540466481</v>
+        <v>0.002193168082575359</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.699091</v>
       </c>
       <c r="I6">
-        <v>0.5227737133000635</v>
+        <v>0.5257850852532363</v>
       </c>
       <c r="J6">
-        <v>0.5227737133000636</v>
+        <v>0.5257850852532362</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>28.171991</v>
       </c>
       <c r="O6">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="P6">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="Q6">
         <v>80.44384004002012</v>
@@ -818,10 +818,10 @@
         <v>723.994560360181</v>
       </c>
       <c r="S6">
-        <v>0.2809466516049514</v>
+        <v>0.283243610592427</v>
       </c>
       <c r="T6">
-        <v>0.2809466516049515</v>
+        <v>0.283243610592427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.699091</v>
       </c>
       <c r="I7">
-        <v>0.5227737133000635</v>
+        <v>0.5257850852532363</v>
       </c>
       <c r="J7">
-        <v>0.5227737133000636</v>
+        <v>0.5257850852532362</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>23.905536</v>
       </c>
       <c r="O7">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="P7">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="Q7">
         <v>68.26117167419734</v>
       </c>
       <c r="R7">
-        <v>614.350545067776</v>
+        <v>614.3505450677761</v>
       </c>
       <c r="S7">
-        <v>0.2383992062904473</v>
+        <v>0.2403483065782339</v>
       </c>
       <c r="T7">
-        <v>0.2383992062904473</v>
+        <v>0.2403483065782338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.695813999999999</v>
+        <v>7.695814000000001</v>
       </c>
       <c r="H8">
         <v>23.087442</v>
       </c>
       <c r="I8">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233437</v>
       </c>
       <c r="J8">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233436</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1145763333333333</v>
+        <v>0.07271233333333334</v>
       </c>
       <c r="N8">
-        <v>0.343729</v>
+        <v>0.218137</v>
       </c>
       <c r="O8">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010892</v>
       </c>
       <c r="P8">
-        <v>0.006557053879060052</v>
+        <v>0.004171225362010893</v>
       </c>
       <c r="Q8">
-        <v>0.8817581501353333</v>
+        <v>0.5595805928393335</v>
       </c>
       <c r="R8">
-        <v>7.935823351218</v>
+        <v>5.036225335554001</v>
       </c>
       <c r="S8">
-        <v>0.003079502416625759</v>
+        <v>0.001970289178816084</v>
       </c>
       <c r="T8">
-        <v>0.003079502416625759</v>
+        <v>0.001970289178816084</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.695813999999999</v>
+        <v>7.695814000000001</v>
       </c>
       <c r="H9">
         <v>23.087442</v>
       </c>
       <c r="I9">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233437</v>
       </c>
       <c r="J9">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233436</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>28.171991</v>
       </c>
       <c r="O9">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="P9">
-        <v>0.5374154140831726</v>
+        <v>0.5387060579248023</v>
       </c>
       <c r="Q9">
-        <v>72.26880091522466</v>
+        <v>72.26880091522467</v>
       </c>
       <c r="R9">
-        <v>650.419208237022</v>
+        <v>650.4192082370221</v>
       </c>
       <c r="S9">
-        <v>0.2523956790543106</v>
+        <v>0.2544592114726254</v>
       </c>
       <c r="T9">
-        <v>0.2523956790543106</v>
+        <v>0.2544592114726254</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.695813999999999</v>
+        <v>7.695814000000001</v>
       </c>
       <c r="H10">
         <v>23.087442</v>
       </c>
       <c r="I10">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233437</v>
       </c>
       <c r="J10">
-        <v>0.4696472643697726</v>
+        <v>0.4723526081233436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>23.905536</v>
       </c>
       <c r="O10">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="P10">
-        <v>0.4560275320377672</v>
+        <v>0.4571227167131868</v>
       </c>
       <c r="Q10">
-        <v>61.32418620876799</v>
+        <v>61.32418620876801</v>
       </c>
       <c r="R10">
-        <v>551.917675878912</v>
+        <v>551.9176758789121</v>
       </c>
       <c r="S10">
-        <v>0.2141720828988362</v>
+        <v>0.2159231074719022</v>
       </c>
       <c r="T10">
-        <v>0.2141720828988362</v>
+        <v>0.2159231074719021</v>
       </c>
     </row>
   </sheetData>
